--- a/02-Avancado1-Funcoes/08-PlanilhasExtras/Aula-31-ExcelAvancado1-Descontos-FuncoesProcuraLogica.xlsx
+++ b/02-Avancado1-Funcoes/08-PlanilhasExtras/Aula-31-ExcelAvancado1-Descontos-FuncoesProcuraLogica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\08-FuncoesProcuraLogica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\08-PlanilhasExtras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A457590-4D95-4E2F-BFC0-45A01EA3EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C88BC-B4D1-4002-96F2-EF183B1BE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descontos" sheetId="1" r:id="rId1"/>
@@ -305,6 +305,164 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Robson Vaamonde
+LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Instagram: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.instagram.com/procedimentoem/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+YouTUBE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.youtube.com/boraparapratica</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.gov.br/receitafederal/pt-br/assuntos/meu-imposto-de-renda/tabelas/2024</t>
+  </si>
+  <si>
+    <t>IR (01/02/2024)</t>
+  </si>
+  <si>
+    <t>Tributação IR de 2024</t>
+  </si>
+  <si>
+    <t>Tributação INSS de 2024</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/inss/pt-br/noticias/confira-as-aliquotas-de-contribuicao-ao-inss-com-o-aumento-do-salario-minimo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Robson Vaamonde
+LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Instagram: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.instagram.com/procedimentoem/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+YouTUBE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.youtube.com/boraparapratica</t>
+    </r>
+  </si>
+  <si>
+    <t>https://solides.com.br/blog/tabela-inss/</t>
+  </si>
+  <si>
+    <t>INSS 2025: confira a tabela e saiba como calcular a dedução do imposto</t>
+  </si>
+  <si>
+    <t>INSS (01/01/2025)</t>
+  </si>
+  <si>
+    <t>https://www.contabeis.com.br/noticias/68838/inss-2025-confira-novas-aliquotas-de-contribuicao/</t>
+  </si>
+  <si>
+    <t>Confira a nova Tabela de vontribuição ao INSS para CLT, MEI e servidores em 2025</t>
+  </si>
+  <si>
+    <t>Tabela do Imposto de Renda 2025: saiba quanto a Receita morde do seu salário</t>
+  </si>
+  <si>
+    <t>https://borainvestir.b3.com.br/noticias/imposto-de-renda/tabela-do-imposto-de-renda-2025-saiba-quanto-a-receita-federal-morde-do-seu-salario/</t>
+  </si>
+  <si>
+    <t>Cálculo de Salário Líquido</t>
+  </si>
+  <si>
+    <t>https://www.calculadorafacil.com.br/trabalhista/calculo-salario-liquido</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -343,7 +501,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Salário Bruto &gt;= Valor da Alíquota Padrão = Alíquota Padrão </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salário Bruto &gt;= Valor da Alíquota Padrão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Alíquota Padrão </t>
     </r>
     <r>
       <rPr>
@@ -363,166 +541,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Procurar na Tabela de INSS o Percentual de Desconto e calcular o valor com base no Salário Bruto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Robson Vaamonde
-LinkedIn: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Instagram: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.instagram.com/procedimentoem/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-YouTUBE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.youtube.com/boraparapratica</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.gov.br/receitafederal/pt-br/assuntos/meu-imposto-de-renda/tabelas/2024</t>
-  </si>
-  <si>
-    <t>IR (01/02/2024)</t>
-  </si>
-  <si>
-    <t>Tributação IR de 2024</t>
-  </si>
-  <si>
-    <t>Tributação INSS de 2024</t>
-  </si>
-  <si>
-    <t>https://www.gov.br/inss/pt-br/noticias/confira-as-aliquotas-de-contribuicao-ao-inss-com-o-aumento-do-salario-minimo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Robson Vaamonde
-LinkedIn: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Instagram: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.instagram.com/procedimentoem/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-YouTUBE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.youtube.com/boraparapratica</t>
-    </r>
-  </si>
-  <si>
-    <t>https://solides.com.br/blog/tabela-inss/</t>
-  </si>
-  <si>
-    <t>INSS 2025: confira a tabela e saiba como calcular a dedução do imposto</t>
-  </si>
-  <si>
-    <t>INSS (01/01/2025)</t>
-  </si>
-  <si>
-    <t>https://www.contabeis.com.br/noticias/68838/inss-2025-confira-novas-aliquotas-de-contribuicao/</t>
-  </si>
-  <si>
-    <t>Confira a nova Tabela de vontribuição ao INSS para CLT, MEI e servidores em 2025</t>
-  </si>
-  <si>
-    <t>Tabela do Imposto de Renda 2025: saiba quanto a Receita morde do seu salário</t>
-  </si>
-  <si>
-    <t>https://borainvestir.b3.com.br/noticias/imposto-de-renda/tabela-do-imposto-de-renda-2025-saiba-quanto-a-receita-federal-morde-do-seu-salario/</t>
-  </si>
-  <si>
-    <t>Cálculo de Salário Líquido</t>
-  </si>
-  <si>
-    <t>https://www.calculadorafacil.com.br/trabalhista/calculo-salario-liquido</t>
+      <t xml:space="preserve"> PROCV na Tabela de INSS o Percentual de Desconto e calcular o valor com base no Salário Bruto</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -531,7 +551,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -651,12 +671,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -676,6 +690,13 @@
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -816,16 +837,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,23 +874,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1501,7 +1522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -1522,12 +1543,12 @@
     <col min="17" max="16384" width="9.140625" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" ht="14.25">
-      <c r="A1" s="32"/>
-    </row>
-    <row r="2" spans="1:15" s="33" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:15" s="27" customFormat="1" ht="14.25">
+      <c r="A1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" s="27" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -1537,7 +1558,7 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:15" s="33" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:15" s="27" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -1547,7 +1568,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:15" s="33" customFormat="1" ht="14.25" customHeight="1">
+    <row r="4" spans="1:15" s="27" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -1557,7 +1578,7 @@
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" spans="1:15" s="33" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:15" s="27" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -1567,7 +1588,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:15" s="33" customFormat="1" ht="14.25" customHeight="1">
+    <row r="6" spans="1:15" s="27" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -1577,27 +1598,27 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+    <row r="7" spans="1:15" s="27" customFormat="1" ht="16.5">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:15" ht="26.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:15">
       <c r="J9"/>
@@ -1608,16 +1629,16 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1626,14 +1647,14 @@
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -1642,14 +1663,14 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -1666,16 +1687,16 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="B14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -1684,14 +1705,14 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -1872,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="16">
-        <v>5900</v>
+        <v>9500</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1956,7 +1977,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="16">
-        <v>5950</v>
+        <v>10523</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -2029,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2047,77 +2068,77 @@
     <col min="17" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" ht="14.25">
-      <c r="A1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" s="33" customFormat="1" ht="16.5">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+    <row r="1" spans="1:8" s="27" customFormat="1" ht="14.25">
+      <c r="A1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="16.5">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="F8" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="30">
       <c r="B9" s="1" t="s">
@@ -2237,108 +2258,108 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
       <c r="F16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="39">
         <v>8157.41</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="2:8">
       <c r="F17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="39">
         <v>851.63</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8"/>
     <row r="19" spans="2:8" ht="21">
-      <c r="B19" s="37" t="s">
-        <v>35</v>
+      <c r="B19" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="36" t="s">
-        <v>33</v>
+      <c r="B20" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:8"/>
     <row r="22" spans="2:8" ht="21">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="29" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="36" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:8"/>
     <row r="25" spans="2:8" ht="21">
-      <c r="B25" s="37" t="s">
-        <v>40</v>
+      <c r="B25" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="36" t="s">
-        <v>39</v>
+      <c r="B26" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:8"/>
     <row r="28" spans="2:8" ht="21">
-      <c r="B28" s="37" t="s">
-        <v>43</v>
+      <c r="B28" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="36" t="s">
-        <v>42</v>
+      <c r="B29" s="29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:8"/>
     <row r="31" spans="2:8" ht="21">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="29" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:2"/>
     <row r="34" spans="2:2" ht="21">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="29" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="36" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="B2:H6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{E85D1C95-5E58-4C95-BFED-F0A673B2E4AB}"/>
